--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,250 +40,208 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>sc</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>increased</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -641,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.96</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1060,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7337662337662337</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,657 +1218,369 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>124</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.8046875</v>
+      </c>
+      <c r="L14">
+        <v>103</v>
+      </c>
+      <c r="M14">
+        <v>103</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.75</v>
+      </c>
+      <c r="L16">
+        <v>90</v>
+      </c>
+      <c r="M16">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L17">
+        <v>77</v>
+      </c>
+      <c r="M17">
+        <v>77</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L18">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1" t="s">
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.69375</v>
+      </c>
+      <c r="L20">
+        <v>111</v>
+      </c>
+      <c r="M20">
+        <v>111</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="L21">
+        <v>98</v>
+      </c>
+      <c r="M21">
+        <v>98</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>44</v>
       </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="M23">
+        <v>42</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>8</v>
       </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L25">
+        <v>18</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L26">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K15">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>16</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L16">
-        <v>45</v>
-      </c>
-      <c r="M16">
-        <v>45</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>0.875</v>
-      </c>
-      <c r="L17">
-        <v>14</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>0.85</v>
-      </c>
-      <c r="L18">
-        <v>34</v>
-      </c>
-      <c r="M18">
-        <v>34</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L19">
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <v>24</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.3562231759656652</v>
-      </c>
-      <c r="C20">
-        <v>83</v>
-      </c>
-      <c r="D20">
-        <v>83</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>150</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L20">
-        <v>42</v>
-      </c>
-      <c r="M20">
-        <v>42</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
-      <c r="M21">
-        <v>44</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.25</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22">
-        <v>0.8</v>
-      </c>
-      <c r="L22">
-        <v>8</v>
-      </c>
-      <c r="M22">
-        <v>8</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C23">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>67</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>38</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.75</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>9</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>96</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L25">
-        <v>8</v>
-      </c>
-      <c r="M25">
-        <v>8</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.06989247311827956</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>173</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L26">
-        <v>42</v>
-      </c>
-      <c r="M26">
-        <v>42</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L27">
         <v>17</v>
@@ -1928,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1954,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.696969696969697</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1980,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.6923076923076923</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2006,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.68</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2032,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.6575342465753424</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2058,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6538461538461539</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2084,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6470588235294118</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2110,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6410256410256411</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2136,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2162,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2188,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5789473684210527</v>
+        <v>0.425</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2214,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.568075117370892</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L39">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2240,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5666666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2266,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5454545454545454</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2292,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2318,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5277777777777778</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L43">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2344,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2370,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.4961240310077519</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="L45">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M45">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2396,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>65</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.45</v>
+        <v>0.34375</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2422,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2448,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.4285714285714285</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2474,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.4130434782608696</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L49">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2500,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>54</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.4</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2526,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.4</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2552,73 +2222,73 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>866</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.375</v>
+        <v>0.02003081664098613</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>636</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.3421052631578947</v>
+        <v>0.01732101616628175</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>851</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.3125</v>
+        <v>0.01664816870144284</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2630,137 +2300,85 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>886</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.2972972972972973</v>
+        <v>0.01493930905695612</v>
       </c>
       <c r="L55">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>26</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.04040404040404041</v>
+        <v>0.008381689232753063</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>190</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.03414634146341464</v>
+        <v>0.005948653725735754</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K58">
-        <v>0.02582159624413146</v>
-      </c>
-      <c r="L58">
-        <v>11</v>
-      </c>
-      <c r="M58">
-        <v>11</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K59">
-        <v>0.01248884924174844</v>
-      </c>
-      <c r="L59">
-        <v>14</v>
-      </c>
-      <c r="M59">
-        <v>16</v>
-      </c>
-      <c r="N59">
-        <v>0.88</v>
-      </c>
-      <c r="O59">
-        <v>0.12</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1107</v>
+        <v>3175</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
@@ -52,163 +49,181 @@
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>dear</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
@@ -220,19 +235,22 @@
     <t>online</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -599,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -768,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6206896551724138</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.613013698630137</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,37 +986,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5600000000000001</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8947368421052632</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4722222222222222</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.8518518518518519</v>
@@ -1068,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2063492063492063</v>
+        <v>0.24</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8482142857142857</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1866666666666667</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
         <v>0.8170731707317073</v>
@@ -1168,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1841085271317829</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1677852348993289</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8046875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,47 +1278,71 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>228</v>
+      </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L15">
+        <v>109</v>
+      </c>
+      <c r="M15">
+        <v>109</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.75</v>
-      </c>
-      <c r="L15">
-        <v>27</v>
-      </c>
-      <c r="M15">
-        <v>27</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7264150943396226</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7254901960784313</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,47 +1406,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6956521739130435</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L19">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <v>42</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>16</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.69375</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L20">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="M20">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6901408450704225</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L21">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6808510638297872</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>0.6428571428571429</v>
@@ -1551,16 +1593,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6388888888888888</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6296296296296297</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.625</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1629,16 +1671,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.62</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5638297872340425</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1676,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5588235294117647</v>
+        <v>0.5625</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1702,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1728,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5248041775456919</v>
+        <v>0.54</v>
       </c>
       <c r="L33">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1754,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>182</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4676470588235294</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L34">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1780,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.449438202247191</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1806,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4305084745762712</v>
+        <v>0.525</v>
       </c>
       <c r="L36">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1832,47 +1874,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>168</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4285714285714285</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>15</v>
-      </c>
-      <c r="M37">
-        <v>15</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.425</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1884,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4242424242424243</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1910,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.4193548387096774</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1936,47 +1978,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>26</v>
-      </c>
-      <c r="M41">
-        <v>26</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.3972602739726027</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1988,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3777777777777778</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2014,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3717948717948718</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2040,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.3682008368200837</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L45">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2066,21 +2108,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2092,21 +2134,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.2</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2118,21 +2160,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>56</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.1805555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2144,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.04784688995215311</v>
+        <v>0.325</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2170,21 +2212,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>398</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.04086538461538462</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2196,21 +2238,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>399</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.03131991051454139</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2222,163 +2264,293 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>866</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.02003081664098613</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L52">
         <v>13</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>636</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.01732101616628175</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>851</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.01664816870144284</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54">
         <v>15</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>886</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.01493930905695612</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L55">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2110</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.008381689232753063</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N56">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>3076</v>
+        <v>865</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.005948653725735754</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N57">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3175</v>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <v>0.02153846153846154</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59">
+        <v>0.01499423298731257</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60">
+        <v>0.01168224299065421</v>
+      </c>
+      <c r="L60">
+        <v>25</v>
+      </c>
+      <c r="M60">
+        <v>28</v>
+      </c>
+      <c r="N60">
+        <v>0.89</v>
+      </c>
+      <c r="O60">
+        <v>0.11</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K61">
+        <v>0.01031592520954223</v>
+      </c>
+      <c r="L61">
+        <v>32</v>
+      </c>
+      <c r="M61">
+        <v>37</v>
+      </c>
+      <c r="N61">
+        <v>0.86</v>
+      </c>
+      <c r="O61">
+        <v>0.14</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62">
+        <v>0.004688965301656768</v>
+      </c>
+      <c r="L62">
+        <v>15</v>
+      </c>
+      <c r="M62">
+        <v>17</v>
+      </c>
+      <c r="N62">
+        <v>0.88</v>
+      </c>
+      <c r="O62">
+        <v>0.12</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3184</v>
       </c>
     </row>
   </sheetData>
